--- a/Тест кейс на кнопка ПОИСК.xlsx
+++ b/Тест кейс на кнопка ПОИСК.xlsx
@@ -594,6 +594,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -603,28 +625,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1021,10 +1021,10 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1242,43 +1242,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="34"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="33"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="33"/>
+      <c r="R6" s="41"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="33"/>
+      <c r="T6" s="41"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1288,29 +1288,29 @@
     </row>
     <row r="7" spans="1:26" ht="61.8" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="35"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="33"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="33"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="33"/>
+      <c r="P7" s="41"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="33"/>
+      <c r="R7" s="41"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="33"/>
+      <c r="T7" s="41"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1610,7 +1610,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="43" t="s">
+      <c r="L15" s="33" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="11"/>
@@ -1648,7 +1648,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="43" t="s">
+      <c r="L16" s="33" t="s">
         <v>1</v>
       </c>
       <c r="M16" s="11"/>
@@ -2965,12 +2965,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -2978,6 +2972,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N42 L8:L42 R8:R42 P8:P42 T8:T42">
